--- a/xlsx/自然 (期刊)_intext.xlsx
+++ b/xlsx/自然 (期刊)_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="132">
   <si>
     <t>自然 (期刊)</t>
   </si>
@@ -29,7 +29,7 @@
     <t>学科</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_自然 (期刊)</t>
+    <t>政策_政策_维基百科_自然 (期刊)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A6%E7%A7%91%E4%BA%A4%E5%8F%89</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%B1%E5%93%8D%E5%9B%A0%E5%AD%90</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E6%9C%9F%E5%88%8A%E8%99%9F</t>
   </si>
   <si>
-    <t>國際標準期刊號</t>
+    <t>国际标准期刊号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6%E6%9C%9F%E5%88%8A</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/X%E4%BF%B1%E6%A8%82%E9%83%A8</t>
   </si>
   <si>
-    <t>X俱樂部</t>
+    <t>X俱乐部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7%E4%BA%A8%E5%88%A9%C2%B7%E8%B5%AB%E8%83%A5%E9%BB%8E</t>
@@ -123,9 +123,6 @@
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%91%A8%E5%88%8A</t>
@@ -1277,7 +1274,7 @@
         <v>35</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1303,10 +1300,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>2</v>
@@ -1332,10 +1329,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1361,10 +1358,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1390,10 +1387,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1419,10 +1416,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1448,10 +1445,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1477,10 +1474,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1506,10 +1503,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1535,10 +1532,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>2</v>
@@ -1564,10 +1561,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1593,10 +1590,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1622,10 +1619,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1651,10 +1648,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>2</v>
@@ -1680,10 +1677,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>2</v>
@@ -1709,10 +1706,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>2</v>
@@ -1738,10 +1735,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>2</v>
@@ -1767,10 +1764,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1796,10 +1793,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
@@ -1825,10 +1822,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1854,10 +1851,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>2</v>
@@ -1883,10 +1880,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1912,10 +1909,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -1941,10 +1938,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -1970,10 +1967,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -1999,10 +1996,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2028,10 +2025,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>3</v>
@@ -2057,10 +2054,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -2086,10 +2083,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -2115,10 +2112,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2144,10 +2141,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>72</v>
+      </c>
+      <c r="F48" t="s">
         <v>73</v>
-      </c>
-      <c r="F48" t="s">
-        <v>74</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -2173,10 +2170,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2202,10 +2199,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -2231,10 +2228,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -2260,10 +2257,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -2289,10 +2286,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>2</v>
@@ -2318,10 +2315,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -2347,10 +2344,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
@@ -2376,10 +2373,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -2405,10 +2402,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -2434,10 +2431,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>18</v>
@@ -2463,10 +2460,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>2</v>
@@ -2492,10 +2489,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -2521,10 +2518,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -2550,10 +2547,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -2579,10 +2576,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -2608,10 +2605,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -2637,10 +2634,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -2666,10 +2663,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -2695,10 +2692,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
